--- a/updatetestcases/UpdateTestingDocument.xlsx
+++ b/updatetestcases/UpdateTestingDocument.xlsx
@@ -12,20 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Check SET_WHERE" sheetId="7" r:id="rId1"/>
-    <sheet name="Customer" sheetId="2" r:id="rId2"/>
-    <sheet name="Delivery" sheetId="5" r:id="rId3"/>
-    <sheet name="Payment" sheetId="6" r:id="rId4"/>
-    <sheet name="Product" sheetId="3" r:id="rId5"/>
-    <sheet name="Si" sheetId="4" r:id="rId6"/>
-    <sheet name=" Intial Testing for CheckUpdate" sheetId="1" r:id="rId7"/>
+    <sheet name="SYNTAX" sheetId="8" r:id="rId1"/>
+    <sheet name="Check Tables_ColumnNames" sheetId="7" r:id="rId2"/>
+    <sheet name="Customer" sheetId="2" r:id="rId3"/>
+    <sheet name="Delivery" sheetId="5" r:id="rId4"/>
+    <sheet name="Payment" sheetId="6" r:id="rId5"/>
+    <sheet name="Product" sheetId="3" r:id="rId6"/>
+    <sheet name="Si" sheetId="4" r:id="rId7"/>
+    <sheet name=" Intial Component Testing " sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="230">
   <si>
     <t>Test Condition</t>
   </si>
@@ -574,9 +575,6 @@
     <t>Check table existing/spelling with set/where clause</t>
   </si>
   <si>
-    <t>Check column names existing/spelling in each table with set/where clause</t>
-  </si>
-  <si>
     <t>update prodct set description = 'technology' WHERE stock &lt; '87' AND stock &gt; '80' ;</t>
   </si>
   <si>
@@ -592,104 +590,316 @@
     <t>Check UPDATE spelling</t>
   </si>
   <si>
-    <t>Check missing SET</t>
-  </si>
-  <si>
-    <t>Check missing WHERE clause</t>
-  </si>
-  <si>
     <t>Syntax error in input</t>
   </si>
   <si>
+    <t>update customer l_name = 'roman' where first_name = 'ray' ;</t>
+  </si>
+  <si>
+    <t>update customers set l_name = 'roman' where first_name = 'ray' ;</t>
+  </si>
+  <si>
+    <t>update customer set lname = 'roman' where first_name = 'ray' ;</t>
+  </si>
+  <si>
+    <t>update customer set fname = 'ray' where last_name = 'roman' ;</t>
+  </si>
+  <si>
+    <t>update customer set emails = 'a@gov.com' where last_name = 'roman' ;</t>
+  </si>
+  <si>
+    <t>update customer set bdate = '7/7/1999' where last_name = 'roman' ;</t>
+  </si>
+  <si>
+    <t>update customer set cust_id = '8'  where last_name = 'roman' ;</t>
+  </si>
+  <si>
+    <t>update payment set pay_id = '100' where amount = '5000' ;</t>
+  </si>
+  <si>
+    <t>update payment set sid = '500' where amount = '5000' ;</t>
+  </si>
+  <si>
+    <t>update payment set amt = '5000'  where payment_id = '100' ;</t>
+  </si>
+  <si>
+    <t>update payment set paymentdate = '5/5/2015' where payment_id = '100' ;</t>
+  </si>
+  <si>
+    <t>update payment set paymentmode = 'credit card' where payment_id = '100' ;</t>
+  </si>
+  <si>
+    <t>update si set sid = '1000' where price = '1500' ;</t>
+  </si>
+  <si>
+    <t>update si set cust_id = '1000' where price = '1500' ;</t>
+  </si>
+  <si>
+    <t>update si set prod_id = '1000' where price = '1500' ;</t>
+  </si>
+  <si>
+    <t>update si set dateorder = '10/10/10' where price = '1500' ;</t>
+  </si>
+  <si>
+    <t>update si set prices = '1500' where si_id = '1000' ;</t>
+  </si>
+  <si>
+    <t>update product set p_id = '10' where weight = '350' ;</t>
+  </si>
+  <si>
+    <t>update product set product_model = 'g9xafnhmex' where weight = '350' ;</t>
+  </si>
+  <si>
+    <t>update product set p_stock = '10' where weight = '350' ;</t>
+  </si>
+  <si>
+    <t>update product set p_desc = 'technology' where weight = '350' ;</t>
+  </si>
+  <si>
+    <t>update product set p_weight = '350' where model = '1960s' ;</t>
+  </si>
+  <si>
+    <t>update delivery set d_id = '11111' where delivery_cost = '25000' ;</t>
+  </si>
+  <si>
+    <t>update delivery set sid = '10101' where delivery_cost = '25000' ;</t>
+  </si>
+  <si>
+    <t>update delivery set qty = '15' where delivery_cost = '25000' ;</t>
+  </si>
+  <si>
+    <t>update delivery set date = '11/11/2015' where delivery_cost = '25000' ;</t>
+  </si>
+  <si>
+    <t>update delivery set cost = '25000' where si_id = '10101' ;</t>
+  </si>
+  <si>
+    <t>update customer set last_name = 'roman' where first_name = 'ray</t>
+  </si>
+  <si>
+    <t>Check missing ' and ;</t>
+  </si>
+  <si>
+    <t>update customer set last_name =                  'roman' where first_name = 'ray' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 17 Row(s) affected                                                                        Row(s) matched: 17 Changed: 17</t>
+  </si>
+  <si>
+    <t>update customer set last_name = 'roman' where first_name =                        'ray' ;</t>
+  </si>
+  <si>
+    <t>update customer set last_name 'roman' where first_name = 'ray' ;</t>
+  </si>
+  <si>
+    <t>Check missing SET, wide spaces and syntax</t>
+  </si>
+  <si>
+    <t>Check missing WHERE clause, wide spaces and syntax</t>
+  </si>
+  <si>
+    <t>update customer set last_name =  'roman' were first_name = 'ray' ;</t>
+  </si>
+  <si>
+    <t>update customer set last_name =  'roman' where first_name 'ray' ;</t>
+  </si>
+  <si>
+    <t>update customer set last_name =  'roman' where first_name = ray ;</t>
+  </si>
+  <si>
+    <t>wrong spelling update</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update customer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> last_name =  'roman' where first_name = 'ray' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>missing '='</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update customer set last_name  = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where first_name = 'ray' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>missing 'where'</t>
+  </si>
+  <si>
+    <t>misspelled 'where'</t>
+  </si>
+  <si>
+    <t>missing 'set'</t>
+  </si>
+  <si>
+    <t>misspelled 'set'</t>
+  </si>
+  <si>
+    <t>missing ' ' for string ('roman')</t>
+  </si>
+  <si>
+    <t>missing ' ' for string ('ray')</t>
+  </si>
+  <si>
+    <t>update customer set last_name = 'roman' where first_name = 'ray'</t>
+  </si>
+  <si>
+    <t>Check missing ' ;'</t>
+  </si>
+  <si>
+    <t>'last_name'</t>
+  </si>
+  <si>
+    <t>'first_name'</t>
+  </si>
+  <si>
+    <t>'email'</t>
+  </si>
+  <si>
+    <t>'date_ordered'</t>
+  </si>
+  <si>
+    <t>'price'</t>
+  </si>
+  <si>
+    <t>'product_id'</t>
+  </si>
+  <si>
+    <t>'model'</t>
+  </si>
+  <si>
+    <t>'stock'</t>
+  </si>
+  <si>
+    <t>'description'</t>
+  </si>
+  <si>
+    <t>'weight'</t>
+  </si>
+  <si>
+    <t>'delivery_id'</t>
+  </si>
+  <si>
+    <t>'si_id'</t>
+  </si>
+  <si>
+    <t>'quantity'</t>
+  </si>
+  <si>
+    <t>'delivery_date'</t>
+  </si>
+  <si>
+    <t>'delivery_cost'</t>
+  </si>
+  <si>
+    <t>'customer'</t>
+  </si>
+  <si>
+    <t>'product'</t>
+  </si>
+  <si>
+    <t>'si'</t>
+  </si>
+  <si>
+    <t>'delivery'</t>
+  </si>
+  <si>
+    <t>'payment'</t>
+  </si>
+  <si>
+    <t>'birthdate'</t>
+  </si>
+  <si>
+    <t>'customer_id'</t>
+  </si>
+  <si>
+    <t>'payment_id'</t>
+  </si>
+  <si>
+    <t>'amount'</t>
+  </si>
+  <si>
+    <t>'date_of_payment'</t>
+  </si>
+  <si>
+    <t>'mode_of_payment'</t>
+  </si>
+  <si>
+    <t>Check column names existing/spelling with set/where clause in table 'payment'</t>
+  </si>
+  <si>
+    <t>Check column names existing/spelling with set/where clause in table 'customer'</t>
+  </si>
+  <si>
+    <t>Check column names existing/spelling with set/where clause in table 'si'</t>
+  </si>
+  <si>
+    <t>Check column names existing/spelling with set/where clause in table 'product'</t>
+  </si>
+  <si>
+    <t>Check column names existing/spelling with set/where clause in table 'delivery'</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
-    <t>update customer l_name = 'roman' where first_name = 'ray' ;</t>
-  </si>
-  <si>
-    <t>update customers set l_name = 'roman' where first_name = 'ray' ;</t>
-  </si>
-  <si>
-    <t>update customer set lname = 'roman' where first_name = 'ray' ;</t>
-  </si>
-  <si>
-    <t>update customer set fname = 'ray' where last_name = 'roman' ;</t>
-  </si>
-  <si>
-    <t>update customer set emails = 'a@gov.com' where last_name = 'roman' ;</t>
-  </si>
-  <si>
-    <t>update customer set bdate = '7/7/1999' where last_name = 'roman' ;</t>
-  </si>
-  <si>
-    <t>update customer set cust_id = '8'  where last_name = 'roman' ;</t>
-  </si>
-  <si>
-    <t>update payment set pay_id = '100' where amount = '5000' ;</t>
-  </si>
-  <si>
-    <t>update payment set sid = '500' where amount = '5000' ;</t>
-  </si>
-  <si>
-    <t>update payment set amt = '5000'  where payment_id = '100' ;</t>
-  </si>
-  <si>
-    <t>update payment set paymentdate = '5/5/2015' where payment_id = '100' ;</t>
-  </si>
-  <si>
-    <t>update payment set paymentmode = 'credit card' where payment_id = '100' ;</t>
-  </si>
-  <si>
-    <t>update si set sid = '1000' where price = '1500' ;</t>
-  </si>
-  <si>
-    <t>update si set cust_id = '1000' where price = '1500' ;</t>
-  </si>
-  <si>
-    <t>update si set prod_id = '1000' where price = '1500' ;</t>
-  </si>
-  <si>
-    <t>update si set dateorder = '10/10/10' where price = '1500' ;</t>
-  </si>
-  <si>
-    <t>update si set prices = '1500' where si_id = '1000' ;</t>
-  </si>
-  <si>
-    <t>update product set p_id = '10' where weight = '350' ;</t>
-  </si>
-  <si>
-    <t>update product set product_model = 'g9xafnhmex' where weight = '350' ;</t>
-  </si>
-  <si>
-    <t>update product set p_stock = '10' where weight = '350' ;</t>
-  </si>
-  <si>
-    <t>update product set p_desc = 'technology' where weight = '350' ;</t>
-  </si>
-  <si>
-    <t>update product set p_weight = '350' where model = '1960s' ;</t>
-  </si>
-  <si>
-    <t>update delivery set d_id = '11111' where delivery_cost = '25000' ;</t>
-  </si>
-  <si>
-    <t>update delivery set sid = '10101' where delivery_cost = '25000' ;</t>
-  </si>
-  <si>
-    <t>update delivery set qty = '15' where delivery_cost = '25000' ;</t>
-  </si>
-  <si>
-    <t>update delivery set date = '11/11/2015' where delivery_cost = '25000' ;</t>
-  </si>
-  <si>
-    <t>update delivery set cost = '25000' where si_id = '10101' ;</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>update customer set last_name = 'roman'                    where first_name = 'ray' ;</t>
+  </si>
+  <si>
+    <t>acceptable wide space</t>
+  </si>
+  <si>
+    <t>update customer set last_name = 'roman' where first_name = 'ray'                                 ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +951,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -789,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,14 +1087,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1161,59 +1405,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D100,"PASSED")</f>
-        <v>33</v>
+        <f>COUNTIF(D8:D84,"PASSED")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D100,"FAILED")</f>
-        <v>0</v>
+        <f>COUNTIF(D8:D84,"FAILED")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(D3:D4)</f>
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1242,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="17"/>
@@ -1256,19 +1500,21 @@
         <v>54</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="17"/>
@@ -1279,41 +1525,491 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
+      <c r="B18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>4</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>5</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>6</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="32" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="E2" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14">
+        <f>COUNTIF(D8:D97,"PASSED")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <f>COUNTIF(D8:D97,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(D3:D4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="35" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1324,10 +2020,10 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="17"/>
@@ -1338,468 +2034,469 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E16" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="35" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="35" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
+      <c r="E20" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="35" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="35" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="35" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
+        <v>156</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>15</v>
+        <v>157</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="35" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
+        <v>158</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="35" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
+        <v>159</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="35" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>18</v>
+        <v>160</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="35" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>11</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="A33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>20</v>
+      <c r="C34" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="35" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>21</v>
+      <c r="C35" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="35" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>22</v>
+      <c r="C36" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="35" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>23</v>
+      <c r="C37" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="35" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="35" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>17</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="6"/>
+      <c r="A39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="35" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="35" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>23</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>24</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>25</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="6"/>
+      <c r="E44" s="35" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1816,13 +2513,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1834,53 +2529,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D51,"PASSED")</f>
+        <f>COUNTIF(D8:D46,"PASSED")</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D53,"FAILED")</f>
+        <f>COUNTIF(D8:D48,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -2029,324 +2724,6 @@
       <c r="C17" s="6"/>
       <c r="D17" s="19"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="32" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="E2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14">
-        <f>COUNTIF(D8:D51,"PASSED")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15">
-        <f>COUNTIF(D8:D53,"FAILED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="16">
-        <f>SUM(D3:D4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>4</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2364,11 +2741,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2380,53 +2755,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D51,"PASSED")</f>
+        <f>COUNTIF(D8:D46,"PASSED")</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D53,"FAILED")</f>
+        <f>COUNTIF(D8:D48,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -2456,77 +2831,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>91</v>
+      <c r="B9" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>101</v>
+      <c r="B10" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="9"/>
@@ -2540,7 +2915,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -2549,7 +2924,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>8</v>
       </c>
@@ -2568,58 +2943,13 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="19"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2637,11 +2967,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2653,53 +2981,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D51,"PASSED")</f>
+        <f>COUNTIF(D8:D46,"PASSED")</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D53,"FAILED")</f>
+        <f>COUNTIF(D8:D48,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -2729,75 +3057,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>98</v>
+      <c r="B10" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>4</v>
@@ -2848,51 +3176,6 @@
       <c r="C17" s="6"/>
       <c r="D17" s="19"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2910,11 +3193,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2926,53 +3207,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D51,"PASSED")</f>
+        <f>COUNTIF(D8:D46,"PASSED")</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D53,"FAILED")</f>
+        <f>COUNTIF(D8:D48,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -3007,55 +3288,55 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>94</v>
+      <c r="B9" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4</v>
@@ -3067,10 +3348,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>4</v>
@@ -3121,51 +3402,6 @@
       <c r="C17" s="6"/>
       <c r="D17" s="19"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3183,11 +3419,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3199,53 +3433,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
+      <c r="E2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14">
+        <f>COUNTIF(D8:D46,"PASSED")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <f>COUNTIF(D8:D48,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(D3:D4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="32" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D9:D100,"PASSED")</f>
+        <f>COUNTIF(D9:D81,"PASSED")</f>
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D9:D100,"FAILED")</f>
+        <f>COUNTIF(D9:D81,"FAILED")</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -3883,139 +4343,6 @@
       <c r="C52" s="6"/>
       <c r="D52" s="19"/>
       <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/updatetestcases/UpdateTestingDocument.xlsx
+++ b/updatetestcases/UpdateTestingDocument.xlsx
@@ -12,21 +12,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="SYNTAX" sheetId="8" r:id="rId1"/>
-    <sheet name="Check Tables_ColumnNames" sheetId="7" r:id="rId2"/>
-    <sheet name="Customer" sheetId="2" r:id="rId3"/>
-    <sheet name="Delivery" sheetId="5" r:id="rId4"/>
-    <sheet name="Payment" sheetId="6" r:id="rId5"/>
-    <sheet name="Product" sheetId="3" r:id="rId6"/>
-    <sheet name="Si" sheetId="4" r:id="rId7"/>
-    <sheet name=" Intial Component Testing " sheetId="1" r:id="rId8"/>
+    <sheet name="Check Date Syntax" sheetId="9" r:id="rId1"/>
+    <sheet name="SYNTAX" sheetId="8" r:id="rId2"/>
+    <sheet name="Check Tables_ColumnNames" sheetId="7" r:id="rId3"/>
+    <sheet name="Customer" sheetId="2" r:id="rId4"/>
+    <sheet name="Delivery" sheetId="5" r:id="rId5"/>
+    <sheet name="Payment" sheetId="6" r:id="rId6"/>
+    <sheet name="Product" sheetId="3" r:id="rId7"/>
+    <sheet name="Si" sheetId="4" r:id="rId8"/>
+    <sheet name=" Intial Component Testing " sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="334">
   <si>
     <t>Test Condition</t>
   </si>
@@ -384,21 +385,9 @@
     <t>UPDATE customer SET birthdate = '3/7/1960' WHERE last_name = 'Ayden' AND email = 'oreneve@wopa.net' ;</t>
   </si>
   <si>
-    <t>UPDATE delivery SET quantity = '150',delivery_cost = '10000' WHERE delivery_date = '4/1/2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = '75',delivery_date = '11/30/2015' WHERE si_id &gt; '1000' AND delivery_cost &gt; '10000' ;</t>
-  </si>
-  <si>
     <t>UPDATE delivery SET quantity = '75',delivery_date = '11/30/2015' WHERE si_id &gt; '1000' OR delivery_cost &lt; '10000' ;</t>
   </si>
   <si>
-    <t>UPDATE payment SET amount = '5500',mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '5/31/2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = '5500',mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '5/31/2014' OR date_of_payment = '7/14/2014' ;</t>
-  </si>
-  <si>
     <t>UPDATE product SET description = 'technology' WHERE stock &lt; '87' AND stock &gt; '80' ;</t>
   </si>
   <si>
@@ -429,9 +418,6 @@
     <t xml:space="preserve">UPDATE payment SET mode_of_payment = 'cash' WHERE mode_of_payment = 'none' ; </t>
   </si>
   <si>
-    <t>UPDATE payment SET amount = '4500' WHERE mode_of_payment = 'paypal' AND date_of_payment &lt; '7/30/2014' ;</t>
-  </si>
-  <si>
     <t>UPDATE payment SET date_of_payment = '6/30/2014',amount = '7500' WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
   </si>
   <si>
@@ -478,9 +464,6 @@
     <t>Query OK, 1 Row(s) affected                                                                        Row(s) matched: 1 Changed: 1</t>
   </si>
   <si>
-    <t>Query OK, 27 Row(s) affected                                                                        Row(s) matched: 27 Changed: 27</t>
-  </si>
-  <si>
     <t>Query OK, 9990 Row(s) affected                                                                        Row(s) matched: 9990 Changed: 9990</t>
   </si>
   <si>
@@ -490,12 +473,6 @@
     <t>Query OK, 37 Row(s) affected                                                                        Row(s) matched: 37 Changed: 37</t>
   </si>
   <si>
-    <t>Query OK, 1013 Row(s) affected                                                                        Row(s) matched: 1013 Changed: 1013</t>
-  </si>
-  <si>
-    <t>Query OK, 9957 Row(s) affected                                                                        Row(s) matched: 9957 Changed: 9957</t>
-  </si>
-  <si>
     <t>Query OK, 1025 Row(s) affected                                                                        Row(s) matched: 1025 Changed: 1025</t>
   </si>
   <si>
@@ -893,13 +870,1014 @@
   </si>
   <si>
     <t>update customer set last_name = 'roman' where first_name = 'ray'                                 ;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> October 18, 2015</t>
+    </r>
+  </si>
+  <si>
+    <t>Check date syntax for table 'customer'</t>
+  </si>
+  <si>
+    <t>Check date syntax for table 'delivery'</t>
+  </si>
+  <si>
+    <t>Check date syntax for table 'payment'</t>
+  </si>
+  <si>
+    <t>Check date syntax for table 'si'</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET email = 'ay@mail.com' WHERE last_name = 'Ayden' AND birthdate &gt; '7/3/1960' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 2 Row(s) affected                                                                        Row(s) matched: 2 Changed: 2</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET email = 'ay@mail.com' WHERE last_name = 'Ayden' AND birthdate &lt; '7/3/1960' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 18 Row(s) affected                                                                        Row(s) matched: 18 Changed: 18</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET last_name = 'Owen',first_name = 'Jerry' WHERE birthdate &gt; '28/3/1928' ;</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET last_name = 'Owen',first_name = 'Jerry' WHERE birthdate &lt; '28/3/1928' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 3372 Row(s) affected                                                                        Row(s) matched: 3372 Changed: 3372</t>
+  </si>
+  <si>
+    <t>Query OK, 6627 Row(s) affected                                                                        Row(s) matched: 6627 Changed: 6627</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name = 'George',email = 'george@mail.com' WHERE birthdate &gt; '18/1/1961' AND last_name = 'Henry' ;</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name = 'George',email = 'george@mail.com' WHERE birthdate &lt; '18/1/1961' AND last_name = 'Henry' ;</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name = 'George' WHERE birthdate &gt; '21/9/2012' OR email = 'zenila@unu.co.uk' ;</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name = 'George' WHERE birthdate &lt; '21/9/2012' OR email = 'zenila@unu.co.uk' ;</t>
+  </si>
+  <si>
+    <t>Parser: Illegal token &gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE customer SET birthdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '3/7/1960' WHERE last_name = 'Ayden' AND email = 'oreneve@wopa.net' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE customer SET birthdate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '3/7/1960' WHERE last_name = 'Ayden' AND email = 'oreneve@wopa.net' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>Parser: Illegal token &lt;</t>
+  </si>
+  <si>
+    <t>Query OK, 14 Row(s) affected                                                                        Row(s) matched: 14 Changed: 14</t>
+  </si>
+  <si>
+    <t>Query OK, 6 Row(s) affected                                                                        Row(s) matched: 6 Changed: 6</t>
+  </si>
+  <si>
+    <t>Query OK, 5495 Row(s) affected                                                                        Row(s) matched: 5495 Changed: 5495</t>
+  </si>
+  <si>
+    <t>Query OK, 4506 Row(s) affected                                                                        Row(s) matched: 4506 Changed: 4506</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '150',delivery_cost = '10000' WHERE delivery_date = '28/11/2015' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 31 Row(s) affected                                                                        Row(s) matched: 31 Changed: 31</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '150',delivery_cost = '10000' WHERE delivery_date &gt; '28/11/2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '150',delivery_cost = '10000' WHERE delivery_date &lt; '28/11/2015' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 9158 Row(s) affected                                                                        Row(s) matched: 9158 Changed: 9158</t>
+  </si>
+  <si>
+    <r>
+      <t>should be '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '75',delivery_date = '30/11/2015' WHERE si_id &gt; '1000' AND delivery_cost &gt; '10000' ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity = '75',delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '30/11/2015' WHERE si_id &gt; '1000' AND delivery_cost &gt; '10000' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity = '75',delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '30/11/2015' WHERE si_id &gt; '1000' AND delivery_cost &gt; '10000' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '1500' WHERE quantity = '48' AND delivery_date = '12/11/2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '1500' WHERE quantity = '48' AND delivery_date &gt; '12/11/2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '1500' WHERE quantity = '48' AND delivery_date &lt; '12/11/2015' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 10 Row(s) affected                                                                        Row(s) matched: 10 Changed: 10</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '2500', quantity = '50' WHERE si_id != '9245' OR delivery_date = '28/11/2015' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 9998 Row(s) affected                                                                        Row(s) matched: 9998 Changed: 9998</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '2500', quantity = '50' WHERE si_id != '9245' OR delivery_date &gt; '28/11/2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '2500', quantity = '50' WHERE si_id != '9245' OR delivery_date &lt; '28/11/2015' ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity = '75',delivery_date = '30/10/2015' WHERE delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '30/11/2015' OR delivery_cost != '10000' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '5500',mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31/5/2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '5500',mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment &lt; '31/5/2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '5500',mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31/5/2014' OR date_of_payment = '14/7/2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '5500',mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31/5/2014' OR date_of_payment &gt; '14/7/2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '5500',mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31/5/2014' OR date_of_payment &lt; '14/7/2014' ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '6/30/2014',amount = '7500' WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '6/30/2014',amount = '7500' WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE payment SET mode_of_payment = 'cash' WHERE date_of_payment != '31/08/2014' ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE payment SET mode_of_payment = 'cash' WHERE date_of_payment &gt; '31/08/2014' ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE payment SET mode_of_payment = 'cash' WHERE date_of_payment &lt; '31/08/2014' ; </t>
+  </si>
+  <si>
+    <t>Query OK, 9975 Row(s) affected                                                                        Row(s) matched: 9975 Changed: 9975</t>
+  </si>
+  <si>
+    <t>Query OK, 61 Row(s) affected                                                                        Row(s) matched: 61 Changed: 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE payment SET mode_of_payment = 'cash' WHERE date_of_payment = '31/08/2014' ; </t>
+  </si>
+  <si>
+    <t>Query OK, 9914 Row(s) affected                                                                        Row(s) matched: 9914 Changed: 9914</t>
+  </si>
+  <si>
+    <t>Query OK, 25 Row(s) affected                                                                        Row(s) matched: 25 Changed: 25</t>
+  </si>
+  <si>
+    <t>Query OK, 983 Row(s) affected                                                                        Row(s) matched: 983 Changed: 983</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '4500' WHERE mode_of_payment = 'paypal' AND date_of_payment != '30/7/2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '4500' WHERE mode_of_payment = 'paypal' AND date_of_payment &lt; '30/7/2014' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 969 Row(s) affected                                                                        Row(s) matched: 969 Changed: 969</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = '4500' WHERE mode_of_payment != 'paypal' AND date_of_payment != '30/7/2014' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 9017 Row(s) affected                                                                        Row(s) matched: 9017 Changed: 9017</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '20000' WHERE customer_id &lt; '4250' AND customer_id &gt; '4000' OR date_ordered != '25/05/2013' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 9988 Row(s) affected                                                                        Row(s) matched: 9988 Changed: 9988</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '20000' WHERE customer_id &lt; '4250' AND customer_id &gt; '4000' OR date_ordered = '25/05/2013' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 6725 Row(s) affected                                                                        Row(s) matched: 6725 Changed: 6725</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '20000' WHERE customer_id &lt; '4250' AND customer_id &gt; '4000' OR date_ordered &gt; '25/05/2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '20000' WHERE customer_id &lt; '4250' AND customer_id &gt; '4000' OR date_ordered &lt; '25/05/2013' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 8118 Row(s) affected                                                                        Row(s) matched: 8118 Changed: 8118</t>
+  </si>
+  <si>
+    <t>Query OK, 8583 Row(s) affected                                                                        Row(s) matched: 8583 Changed: 8583</t>
+  </si>
+  <si>
+    <t>Parser: Illegal token !=</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET date_ordered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '9/2/2014' WHERE customer_id &lt; '4250' AND customer_id &gt; '4000' AND product_id = '3469' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET date_ordered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '9/2/2014' WHERE customer_id &lt; '4250' AND customer_id &gt; '4000' AND product_id = '3469' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET date_ordered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'9/2/2014' WHERE customer_id &lt; '4250' AND customer_id &gt; '4000' AND product_id = '3469' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '1999' WHERE product_id &lt; '70' OR date_ordered = '9/2/2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '1999' WHERE product_id &lt; '70' OR date_ordered != '9/2/2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '1999' WHERE product_id &lt; '70' OR date_ordered &gt; '9/2/2014' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 6638 Row(s) affected                                                                        Row(s) matched: 6638 Changed: 6638</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = '1999' WHERE product_id &lt; '70' OR date_ordered &lt; '9/2/2014' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 9934 Row(s) affected                                                                        Row(s) matched: 9934 Changed: 9934</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = '1001', date_ordered = '10/10/2015' WHERE product_id &lt; '500' AND date_ordered =  '27/06/2013' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 7 Row(s) affected                                                                        Row(s) matched: 7 Changed: 7</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = '1001', date_ordered = '10/10/2015' WHERE product_id &lt; '500' AND date_ordered !=  '27/06/2013' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 4434 Row(s) affected                                                                        Row(s) matched: 4434 Changed: 4434</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = '1001', date_ordered = '10/10/2015' WHERE product_id &lt; '500' AND date_ordered &gt;  '27/06/2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = '1001', date_ordered = '10/10/2015' WHERE product_id &lt; '500' AND date_ordered &lt;  '27/06/2013' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 1618 Row(s) affected                                                                        Row(s) matched: 1618 Changed: 1618</t>
+  </si>
+  <si>
+    <t>Query OK, 2816 Row(s) affected                                                                        Row(s) matched: 2816 Changed: 2816</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE customer SET birthdate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '3/7/1960' WHERE last_name = 'Ayden' AND email = 'oreneve@wopa.net' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity = '75',delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '30/11/2015' WHERE si_id &gt; '1000' AND delivery_cost &gt; '10000' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '6/30/2014',amount = '7500' WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE customer SET email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'ay@mail.com' WHERE last_name = 'Ayden' AND birthdate = '7/3/1960' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE payment SET date_of_payment = '30/6/2014',amount = '7500' WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '75',delivery_date = '30/10/2015' WHERE delivery_date = '30/11/2015' OR delivery_cost != '5000' ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity = '75',delivery_date = '30/10/2015' WHERE delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '30/11/2015' OR delivery_cost != '7500' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE product SET description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'technology' WHERE stock &lt; '87' AND stock &gt; '80' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE product SET description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'ability' WHERE weight != '0' OR weight &lt; '1' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE product SET model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '1960s', description = 'imagination' WHERE stock &lt; '30' ;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Check '=' in SET for all tables </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE customer SET birthdate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '3/7/1960' WHERE last_name = 'Ayden' AND email = 'oreneve@wopa.net' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE customer SET last_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Owen',first_name = 'Jerry' WHERE birthdate = '28/3/1928' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET delivery_cost </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '1500' WHERE quantity &lt; '10' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET delivery_cost </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '2500', quantity = '50' WHERE si_id &lt; '100' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '150',delivery_cost = '10000' WHERE delivery_date = '28/11/2015' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET mode_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'cash' WHERE mode_of_payment = 'none' ; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET amount </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '4500' WHERE mode_of_payment = 'paypal' AND date_of_payment &lt; '30/7/2014' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '30/6/2014',amount = '7500' WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '1999' WHERE product_id &lt; '70' OR product_id = '65' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET customer_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '1001', date_ordered = '10/10/2015' WHERE product_id &lt; '500' AND price &lt; '4000' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET product_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '1111', price = '5850' WHERE customer_id &lt; '1000' ;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,6 +1948,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF373E4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1018,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1104,6 +2088,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1391,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,67 +2404,67 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="45"/>
       <c r="E2" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D84,"PASSED")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+        <f>COUNTIF(D8:D134,"PASSED")</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D84,"FAILED")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+        <f>COUNTIF(D8:D134,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(D3:D4)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>52</v>
       </c>
@@ -1480,332 +2480,1035 @@
       <c r="E7" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B15" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B26" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B27" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B28" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
+        <v>4</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="B30" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:5" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>6</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <v>7</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
+        <v>9</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>11</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="D36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>12</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>13</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>14</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B48" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>7</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B50" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>12</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>13</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>15</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>16</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B60" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B61" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>4</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="B62" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>4</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>5</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="B64" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>6</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="B65" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>7</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B66" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>8</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>9</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>11</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>12</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>13</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>14</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>15</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>16</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1822,6 +3525,662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="32" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="E2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14">
+        <f>COUNTIF(D8:D84,"PASSED")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <f>COUNTIF(D8:D84,"FAILED")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(D3:D4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>4</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>5</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>6</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>14</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>15</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -1839,27 +4198,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="45"/>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1869,10 +4228,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1882,10 +4241,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -1920,7 +4279,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="17"/>
@@ -1931,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
@@ -1940,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1948,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>35</v>
@@ -1957,7 +4316,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1965,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -1974,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1982,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>37</v>
@@ -1991,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1999,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>38</v>
@@ -2008,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,7 +4382,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="17"/>
@@ -2034,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>9</v>
@@ -2043,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2051,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -2060,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2068,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>11</v>
@@ -2077,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2085,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>12</v>
@@ -2094,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2102,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
@@ -2111,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2119,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="17"/>
@@ -2130,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>14</v>
@@ -2139,7 +4498,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2147,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
@@ -2156,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2164,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>16</v>
@@ -2173,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2181,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
@@ -2190,7 +4549,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2198,7 +4557,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>18</v>
@@ -2207,15 +4566,15 @@
         <v>4</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="17"/>
@@ -2226,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>19</v>
@@ -2235,7 +4594,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2243,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>20</v>
@@ -2252,7 +4611,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2260,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>21</v>
@@ -2269,7 +4628,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2277,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>22</v>
@@ -2286,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2294,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>23</v>
@@ -2303,15 +4662,15 @@
         <v>4</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
@@ -2322,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -2331,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2339,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>25</v>
@@ -2348,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2356,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>26</v>
@@ -2365,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2373,7 +4732,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2382,7 +4741,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2390,7 +4749,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>28</v>
@@ -2399,15 +4758,15 @@
         <v>4</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
@@ -2418,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>29</v>
@@ -2427,7 +4786,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2435,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>30</v>
@@ -2444,7 +4803,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2452,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>31</v>
@@ -2461,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2469,7 +4828,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>32</v>
@@ -2478,7 +4837,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2486,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>33</v>
@@ -2495,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2513,11 +4872,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2529,27 +4890,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="45"/>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2559,10 +4920,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2572,10 +4933,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -2610,10 +4971,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>4</v>
@@ -2628,7 +4989,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>4</v>
@@ -2640,10 +5001,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>4</v>
@@ -2655,10 +5016,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4</v>
@@ -2670,10 +5031,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>4</v>
@@ -2718,232 +5079,6 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="32" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="E2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14">
-        <f>COUNTIF(D8:D46,"PASSED")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15">
-        <f>COUNTIF(D8:D48,"FAILED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="16">
-        <f>SUM(D3:D4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>4</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="6"/>
@@ -2969,7 +5104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2981,27 +5118,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="45"/>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3011,10 +5148,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3024,10 +5161,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -3057,77 +5194,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>91</v>
+      <c r="B9" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>101</v>
+      <c r="B10" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="9"/>
@@ -3141,7 +5278,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -3150,7 +5287,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>8</v>
       </c>
@@ -3169,7 +5306,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="6"/>
@@ -3195,7 +5332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3207,27 +5346,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="45"/>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3237,10 +5376,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3250,10 +5389,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -3283,75 +5422,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>98</v>
+      <c r="B10" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>4</v>
@@ -3421,7 +5560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3433,27 +5574,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="45"/>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3463,10 +5604,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3476,10 +5617,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -3514,55 +5655,55 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>94</v>
+      <c r="B9" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4</v>
@@ -3574,10 +5715,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>4</v>
@@ -3645,6 +5786,234 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="32" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="E2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14">
+        <f>COUNTIF(D8:D46,"PASSED")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <f>COUNTIF(D8:D48,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(D3:D4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3659,27 +6028,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="45"/>
       <c r="E2" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3689,10 +6058,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3702,10 +6071,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -3768,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="17"/>
@@ -3782,7 +6151,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>4</v>
@@ -3812,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>34</v>
@@ -3891,7 +6260,7 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>46</v>
